--- a/CASUAL/LA TICC/RAMOS, EULOGIA.xlsx
+++ b/CASUAL/LA TICC/RAMOS, EULOGIA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>UT(0-0-12)</t>
+  </si>
+  <si>
+    <t>UT(0-1-36)</t>
+  </si>
+  <si>
+    <t>UT(0-0-6)</t>
   </si>
 </sst>
 </file>
@@ -3296,9 +3302,9 @@
   <dimension ref="A2:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A51" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,7 +3465,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>44.225000000000001</v>
+        <v>44.012999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4342,11 +4348,15 @@
       <c r="A52" s="40">
         <v>44743</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>1.2E-2</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
@@ -4402,11 +4412,15 @@
       <c r="A55" s="40">
         <v>44835</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="39">
+        <v>0.2</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
@@ -7856,11 +7870,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.5000000000000008E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
